--- a/TFC - Textos/Plantilla-resultados-final.xlsx
+++ b/TFC - Textos/Plantilla-resultados-final.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23117"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Páginas de inicio" sheetId="1" r:id="rId1"/>
@@ -367,105 +367,6 @@
     <t>Contraste fuente-fondo</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Compatibilidad con los diferentes navegadores web </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Safari)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Compatibilidad con los diferentes navegadores web </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Firefox)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Compatibilidad con los diferentes navegadores web </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Chrome)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Compatibilidad con diferentes resoluciones de pantalla </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(800x600)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Compatibilidad con diferentes resoluciones de pantalla </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(1024x768)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Compatibilidad con diferentes resoluciones de pantalla </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(1280x800)</t>
-    </r>
-  </si>
-  <si>
-    <t>Instalación de plugins</t>
-  </si>
-  <si>
     <t>Etiquetas de texto alternativo</t>
   </si>
   <si>
@@ -1202,6 +1103,82 @@
   </si>
   <si>
     <t>E-mail de contacto de la OMD</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Compatibilidad con los diferentes navegadores web </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>(Safari)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Compatibilidad con los diferentes navegadores web </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>(Firefox)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Compatibilidad con los diferentes navegadores web </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>(Chrome)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Compatibilidad con diferentes resoluciones de pantalla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>(1024x768)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Compatibilidad con diferentes resoluciones de pantalla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>(1280x800)</t>
+    </r>
+  </si>
+  <si>
+    <t>Compatibilidad con diferentes resoluciones de pantalla</t>
+  </si>
+  <si>
+    <t>El usuario puede disfrutar de todos los contenidos sin necesidad de tener que instalar plugins adicionales</t>
   </si>
 </sst>
 </file>
@@ -1425,7 +1402,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1441,8 +1418,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1701,8 +1692,26 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="29">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1710,6 +1719,13 @@
     <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -1717,6 +1733,13 @@
     <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2055,7 +2078,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2063,7 +2086,7 @@
     <col min="1" max="1" width="41.83203125" style="48" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.33203125" style="48" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2" style="48" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="92" customWidth="1"/>
     <col min="6" max="6" width="6.6640625" style="48" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.83203125" style="48" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.5" style="48" bestFit="1" customWidth="1"/>
@@ -2079,7 +2102,7 @@
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
       <c r="D1" s="58"/>
-      <c r="E1" s="45"/>
+      <c r="E1" s="88"/>
       <c r="F1" s="46" t="s">
         <v>8</v>
       </c>
@@ -2107,7 +2130,7 @@
       <c r="D2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="51"/>
+      <c r="E2" s="89"/>
       <c r="F2" s="46"/>
       <c r="G2" s="39" t="s">
         <v>10</v>
@@ -2129,7 +2152,7 @@
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
       <c r="D3" s="60"/>
-      <c r="E3" s="51"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="51"/>
       <c r="G3" s="41"/>
       <c r="H3" s="52"/>
@@ -2141,16 +2164,22 @@
         <v>5</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>299</v>
-      </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
+        <v>292</v>
+      </c>
+      <c r="E4" s="90">
+        <f>SUM((IF(B4="Sí",3,IF(B4="Regular",2,IF(B4="Parcialmente",2)))),(IF(C4="Sí",3,IF(C4="Regular",2,IF(C4="Parcialmente",2)))),(IF(D4="Sí",3,IF(D4="Regular",2,IF(D4="Parcialmente",2)))))/9</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="52">
+        <f>SUM((IF(B4="Sí",3,IF(B4="Regular",2,IF(B4="Parcialmente",2)))),(IF(C4="Sí",3,IF(C4="Regular",2,IF(C4="Parcialmente",2)))),(IF(D4="Sí",3,IF(D4="Regular",2,IF(D4="Parcialmente",2)))))/9</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="44" t="s">
@@ -2159,7 +2188,10 @@
       <c r="B5" s="55"/>
       <c r="C5" s="56"/>
       <c r="D5" s="57"/>
-      <c r="E5" s="53"/>
+      <c r="E5" s="90">
+        <f t="shared" ref="E5:E22" si="0">SUM((IF(B5="Sí",3,IF(B5="Regular",2,IF(B5="Parcialmente",2)))),(IF(C5="Sí",3,IF(C5="Regular",2,IF(C5="Parcialmente",2)))),(IF(D5="Sí",3,IF(D5="Regular",2,IF(D5="Parcialmente",2)))))/9</f>
+        <v>0</v>
+      </c>
       <c r="F5" s="53"/>
       <c r="H5" s="41"/>
     </row>
@@ -2168,15 +2200,18 @@
         <v>16</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>299</v>
-      </c>
-      <c r="E6" s="53"/>
+        <v>292</v>
+      </c>
+      <c r="E6" s="90">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
       <c r="F6" s="51"/>
     </row>
     <row r="7" spans="1:10">
@@ -2184,15 +2219,18 @@
         <v>17</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D7" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="53"/>
+      <c r="E7" s="90">
+        <f t="shared" si="0"/>
+        <v>0.55555555555555558</v>
+      </c>
       <c r="F7" s="53"/>
     </row>
     <row r="8" spans="1:10">
@@ -2200,31 +2238,41 @@
         <v>19</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>299</v>
-      </c>
-      <c r="E8" s="53"/>
+        <v>292</v>
+      </c>
+      <c r="E8" s="90">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="F8" s="53"/>
+      <c r="G8" s="48">
+        <f>5/9*100</f>
+        <v>55.555555555555557</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="24">
       <c r="A9" s="42" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>299</v>
-      </c>
-      <c r="E9" s="53"/>
+        <v>292</v>
+      </c>
+      <c r="E9" s="90">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="F9" s="53"/>
     </row>
     <row r="10" spans="1:10" ht="24">
@@ -2234,7 +2282,10 @@
       <c r="B10" s="55"/>
       <c r="C10" s="56"/>
       <c r="D10" s="57"/>
-      <c r="E10" s="53"/>
+      <c r="E10" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F10" s="53"/>
     </row>
     <row r="11" spans="1:10">
@@ -2242,15 +2293,18 @@
         <v>22</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>299</v>
-      </c>
-      <c r="E11" s="53"/>
+        <v>292</v>
+      </c>
+      <c r="E11" s="90">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="F11" s="53"/>
     </row>
     <row r="12" spans="1:10">
@@ -2258,15 +2312,18 @@
         <v>23</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>300</v>
-      </c>
-      <c r="E12" s="53"/>
+        <v>293</v>
+      </c>
+      <c r="E12" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F12" s="53"/>
     </row>
     <row r="13" spans="1:10">
@@ -2274,15 +2331,18 @@
         <v>24</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>300</v>
-      </c>
-      <c r="E13" s="53"/>
+        <v>293</v>
+      </c>
+      <c r="E13" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F13" s="53"/>
     </row>
     <row r="14" spans="1:10">
@@ -2290,15 +2350,18 @@
         <v>25</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>300</v>
-      </c>
-      <c r="E14" s="53"/>
+        <v>293</v>
+      </c>
+      <c r="E14" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F14" s="53"/>
     </row>
     <row r="15" spans="1:10" ht="24">
@@ -2306,16 +2369,22 @@
         <v>26</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
+        <v>294</v>
+      </c>
+      <c r="E15" s="90">
+        <f>SUM((IF(B15="Sí",3,IF(B15="Regular",2,IF(B15="Parcialmente",2,IF(B15="Extra",3))))),(IF(C15="Sí",3,IF(C15="Regular",2,IF(C15="Parcialmente",2,IF(C15="Extra",3))))),(IF(D15="Sí",3,IF(D15="Regular",2,IF(D15="Parcialmente",2,IF(D15="Extra",3))))))/9</f>
+        <v>1</v>
+      </c>
+      <c r="F15" s="53">
+        <f>IF(D15="Sí",3,IF(D15="Regular",2,IF(D15="Parcialmente",2,IF(D15="Extra",3))))</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="24">
       <c r="A16" s="44" t="s">
@@ -2324,7 +2393,7 @@
       <c r="B16" s="55"/>
       <c r="C16" s="56"/>
       <c r="D16" s="57"/>
-      <c r="E16" s="53"/>
+      <c r="E16" s="90"/>
       <c r="F16" s="53"/>
     </row>
     <row r="17" spans="1:6">
@@ -2332,15 +2401,18 @@
         <v>28</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>299</v>
-      </c>
-      <c r="E17" s="53"/>
+        <v>292</v>
+      </c>
+      <c r="E17" s="90">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="F17" s="53"/>
     </row>
     <row r="18" spans="1:6">
@@ -2348,15 +2420,18 @@
         <v>29</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D18" s="43" t="s">
-        <v>300</v>
-      </c>
-      <c r="E18" s="53"/>
+        <v>293</v>
+      </c>
+      <c r="E18" s="90">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F18" s="53"/>
     </row>
     <row r="19" spans="1:6">
@@ -2364,15 +2439,18 @@
         <v>30</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>300</v>
-      </c>
-      <c r="E19" s="53"/>
+        <v>293</v>
+      </c>
+      <c r="E19" s="90">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
       <c r="F19" s="53"/>
     </row>
     <row r="20" spans="1:6">
@@ -2380,15 +2458,18 @@
         <v>31</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>299</v>
-      </c>
-      <c r="E20" s="53"/>
+        <v>292</v>
+      </c>
+      <c r="E20" s="90">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
       <c r="F20" s="53"/>
     </row>
     <row r="21" spans="1:6">
@@ -2396,15 +2477,18 @@
         <v>32</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D21" s="43" t="s">
-        <v>300</v>
-      </c>
-      <c r="E21" s="53"/>
+        <v>293</v>
+      </c>
+      <c r="E21" s="90">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
       <c r="F21" s="53"/>
     </row>
     <row r="22" spans="1:6">
@@ -2412,15 +2496,18 @@
         <v>33</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>299</v>
-      </c>
-      <c r="E22" s="53"/>
+        <v>292</v>
+      </c>
+      <c r="E22" s="90">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="F22" s="53"/>
     </row>
     <row r="23" spans="1:6">
@@ -2428,7 +2515,7 @@
       <c r="B23" s="54"/>
       <c r="C23" s="54"/>
       <c r="D23" s="54"/>
-      <c r="E23" s="53"/>
+      <c r="E23" s="91"/>
       <c r="F23" s="53"/>
     </row>
     <row r="24" spans="1:6">
@@ -2534,7 +2621,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1">
       <c r="A1" s="64" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B1" s="65"/>
       <c r="C1" s="65"/>
@@ -2556,7 +2643,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="14" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B3" s="67"/>
       <c r="C3" s="67"/>
@@ -2565,187 +2652,187 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="30">
       <c r="A5" s="15" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" ht="45">
       <c r="A6" s="4" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="30">
       <c r="A7" s="4" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" ht="45">
       <c r="A8" s="4" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" ht="45">
       <c r="A9" s="4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="15" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" ht="30">
       <c r="A14" s="4" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" ht="30">
       <c r="A16" s="13" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B16" s="61"/>
       <c r="C16" s="62"/>
@@ -2754,52 +2841,52 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" ht="30">
       <c r="A18" s="4" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5" ht="30">
       <c r="A19" s="4" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="16" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
@@ -2808,58 +2895,58 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30">
       <c r="A22" s="4" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -2896,7 +2983,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1">
       <c r="A1" s="64" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B1" s="65"/>
       <c r="C1" s="65"/>
@@ -2918,7 +3005,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="14" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B3" s="67"/>
       <c r="C3" s="67"/>
@@ -2927,52 +3014,52 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="15" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="13" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B7" s="61"/>
       <c r="C7" s="62"/>
@@ -2981,52 +3068,52 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="13" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
@@ -3035,49 +3122,49 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30">
       <c r="A15" s="13" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B15" s="61"/>
       <c r="C15" s="62"/>
@@ -3085,80 +3172,80 @@
     </row>
     <row r="16" spans="1:6" ht="30">
       <c r="A16" s="4" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="F16" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30">
       <c r="A18" s="4" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30">
       <c r="A20" s="4" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="13" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B21" s="61"/>
       <c r="C21" s="62"/>
@@ -3166,35 +3253,35 @@
     </row>
     <row r="22" spans="1:4" ht="45">
       <c r="A22" s="4" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30">
       <c r="A23" s="4" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30">
       <c r="A24" s="13" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B24" s="61"/>
       <c r="C24" s="62"/>
@@ -3202,30 +3289,30 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="4" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -3252,9 +3339,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -3265,7 +3352,8 @@
     <col min="4" max="4" width="11" style="74" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" style="48" customWidth="1"/>
     <col min="6" max="6" width="9" style="78" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="48"/>
+    <col min="7" max="7" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1">
@@ -3304,13 +3392,13 @@
         <v>36</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E4" s="52"/>
       <c r="F4" s="78">
@@ -3323,18 +3411,18 @@
         <v>37</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D5" s="43" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="53"/>
       <c r="F5" s="78">
-        <f t="shared" ref="F4:F8" si="0">SUM((IF(B5="Sí",3,IF(B5="Regular",2))),(IF(C5="Sí",3,IF(C5="Regular",2))),(IF(D5="Sí",3,IF(D5="Regular",2))))/9</f>
-        <v>0.66666666666666663</v>
+        <f>SUM((IF(B5="Sí",3,IF(B5="Regular",2,IF(B5="Parcialmente",2)))),(IF(C5="Sí",3,IF(C5="Regular",2,IF(C5="Parcialmente",2)))),(IF(D5="Sí",3,IF(D5="Regular",2,IF(D5="Parcialmente",2)))))/9</f>
+        <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3342,17 +3430,17 @@
         <v>38</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E6" s="53"/>
       <c r="F6" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F4:F8" si="0">SUM((IF(B6="Sí",3,IF(B6="Regular",2))),(IF(C6="Sí",3,IF(C6="Regular",2))),(IF(D6="Sí",3,IF(D6="Regular",2))))/9</f>
         <v>0.77777777777777779</v>
       </c>
     </row>
@@ -3361,13 +3449,13 @@
         <v>39</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E7" s="53"/>
       <c r="F7" s="78">
@@ -3380,13 +3468,13 @@
         <v>40</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E8" s="53"/>
       <c r="F8" s="78">
@@ -3406,13 +3494,13 @@
         <v>41</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E9" s="53"/>
       <c r="F9" s="78">
@@ -3428,13 +3516,13 @@
         <v>42</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E10" s="53"/>
       <c r="F10" s="78">
@@ -3450,13 +3538,13 @@
         <v>43</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E11" s="53"/>
       <c r="F11" s="78">
@@ -3469,13 +3557,13 @@
         <v>44</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E12" s="53"/>
       <c r="F12" s="78">
@@ -3488,13 +3576,13 @@
         <v>45</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="78">
@@ -3510,23 +3598,19 @@
       <c r="C14" s="82"/>
       <c r="D14" s="83"/>
       <c r="E14" s="53"/>
-      <c r="F14" s="78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="42" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E15" s="53"/>
       <c r="F15" s="78">
@@ -3539,13 +3623,13 @@
         <v>48</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E16" s="53"/>
       <c r="F16" s="78">
@@ -3555,16 +3639,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="42" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E17" s="53"/>
       <c r="F17" s="78">
@@ -3577,13 +3661,13 @@
         <v>49</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D18" s="43" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="78">
@@ -3596,13 +3680,13 @@
         <v>50</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E19" s="53"/>
       <c r="F19" s="78">
@@ -3615,13 +3699,13 @@
         <v>51</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E20" s="53"/>
       <c r="F20" s="78">
@@ -3637,23 +3721,19 @@
       <c r="C21" s="85"/>
       <c r="D21" s="86"/>
       <c r="E21" s="53"/>
-      <c r="F21" s="78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="42" t="s">
         <v>53</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F22" s="78">
         <f t="shared" si="1"/>
@@ -3665,13 +3745,13 @@
         <v>54</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F23" s="78">
         <f t="shared" si="1"/>
@@ -3683,13 +3763,13 @@
         <v>55</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F24" s="78">
         <f t="shared" si="1"/>
@@ -3701,13 +3781,13 @@
         <v>56</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F25" s="78">
         <f t="shared" si="1"/>
@@ -3719,13 +3799,13 @@
         <v>57</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D26" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F26" s="78">
         <f t="shared" si="1"/>
@@ -3739,23 +3819,19 @@
       <c r="B27" s="81"/>
       <c r="C27" s="82"/>
       <c r="D27" s="83"/>
-      <c r="F27" s="78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="42" t="s">
         <v>59</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C28" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F28" s="78">
         <f t="shared" si="1"/>
@@ -3767,13 +3843,13 @@
         <v>61</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C29" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F29" s="78">
         <f t="shared" si="1"/>
@@ -3785,13 +3861,13 @@
         <v>60</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D30" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F30" s="78">
         <f t="shared" si="1"/>
@@ -3803,13 +3879,13 @@
         <v>62</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D31" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F31" s="78">
         <f t="shared" si="1"/>
@@ -3821,13 +3897,13 @@
         <v>63</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C32" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D32" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F32" s="78">
         <f t="shared" si="1"/>
@@ -3839,13 +3915,13 @@
         <v>64</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D33" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F33" s="78">
         <f t="shared" si="1"/>
@@ -3857,13 +3933,13 @@
         <v>65</v>
       </c>
       <c r="B34" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D34" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F34" s="78">
         <f t="shared" si="1"/>
@@ -3875,13 +3951,13 @@
         <v>66</v>
       </c>
       <c r="B35" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C35" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D35" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F35" s="78">
         <f t="shared" si="1"/>
@@ -3893,13 +3969,13 @@
         <v>67</v>
       </c>
       <c r="B36" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D36" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F36" s="78">
         <f t="shared" si="1"/>
@@ -3911,13 +3987,13 @@
         <v>68</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C37" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D37" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F37" s="78">
         <f t="shared" si="1"/>
@@ -3929,13 +4005,13 @@
         <v>69</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D38" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F38" s="78">
         <f t="shared" si="1"/>
@@ -3947,13 +4023,13 @@
         <v>70</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D39" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F39" s="78">
         <f t="shared" si="1"/>
@@ -3965,13 +4041,13 @@
         <v>71</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D40" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F40" s="78">
         <f t="shared" si="1"/>
@@ -3983,13 +4059,13 @@
         <v>72</v>
       </c>
       <c r="B41" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D41" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F41" s="78">
         <f t="shared" si="1"/>
@@ -4001,13 +4077,13 @@
         <v>73</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D42" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F42" s="78">
         <f t="shared" si="1"/>
@@ -4019,13 +4095,13 @@
         <v>74</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C43" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D43" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F43" s="78">
         <f t="shared" si="1"/>
@@ -4037,13 +4113,13 @@
         <v>75</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C44" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D44" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F44" s="78">
         <f t="shared" si="1"/>
@@ -4055,13 +4131,13 @@
         <v>76</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C45" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D45" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F45" s="78">
         <f t="shared" si="1"/>
@@ -4070,16 +4146,16 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="42" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B46" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D46" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F46" s="78">
         <f t="shared" si="1"/>
@@ -4091,13 +4167,13 @@
         <v>77</v>
       </c>
       <c r="B47" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C47" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D47" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F47" s="78">
         <f t="shared" si="1"/>
@@ -4106,16 +4182,16 @@
     </row>
     <row r="48" spans="1:6" ht="24">
       <c r="A48" s="73" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B48" s="87" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C48" s="87" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D48" s="87" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="F48" s="78">
         <f t="shared" si="1"/>
@@ -4127,13 +4203,13 @@
         <v>78</v>
       </c>
       <c r="B49" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C49" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D49" s="43" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F49" s="78">
         <f t="shared" si="1"/>
@@ -4142,7 +4218,7 @@
     </row>
     <row r="50" spans="1:6" ht="24">
       <c r="B50" s="74" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -4167,315 +4243,305 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="42" customWidth="1"/>
-    <col min="2" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="2" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="36"/>
+    <col min="1" max="1" width="36" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" style="48" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="92" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5" style="48" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" ht="16" thickBot="1">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="45"/>
+    </row>
+    <row r="2" spans="1:7" ht="13" thickBot="1">
+      <c r="A2" s="49"/>
+      <c r="B2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="51"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="6"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="36">
-        <f>SUM((IF(B4="Sí",3,IF(B4="Regular",2))),(IF(C4="Sí",3,IF(C4="Regular",2))),(IF(D4="Sí",3,IF(D4="Regular",2))))/9</f>
+      <c r="B4" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="E4" s="52"/>
+      <c r="F4" s="92">
+        <f t="shared" ref="F4:F7" si="0">SUM((IF(B4="Sí",3,IF(B4="Regular",2,IF(B4="Parcialmente",2)))),(IF(C4="Sí",3,IF(C4="Regular",2,IF(C4="Parcialmente",2)))),(IF(D4="Sí",3,IF(D4="Regular",2,IF(D4="Parcialmente",2)))))/9</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="36">
-        <f t="shared" ref="F5:F18" si="0">SUM((IF(B5="Sí",3,IF(B5="Regular",2))),(IF(C5="Sí",3,IF(C5="Regular",2))),(IF(D5="Sí",3,IF(D5="Regular",2))))/9</f>
+      <c r="B5" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>293</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="53"/>
+      <c r="F5" s="92">
+        <f t="shared" si="0"/>
         <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="36">
+      <c r="B6" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="53"/>
+      <c r="F6" s="92">
         <f t="shared" si="0"/>
         <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A7" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="B7" s="81"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="53"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="36">
+      <c r="B8" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="53"/>
+      <c r="F8" s="92">
         <f>SUM((IF(B8="Sí",3,IF(B8="Regular",2,IF(B8="Parcialmente",2)))),(IF(C8="Sí",3,IF(C8="Regular",2,IF(C8="Parcialmente",2)))),(IF(D8="Sí",3,IF(D8="Regular",2,IF(D8="Parcialmente",2)))))/9</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="48">
         <f>IF(D8="Sí",3,IF(D8="Regular",2,IF(D8="Parcialmente",2)))</f>
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="36">
+      <c r="B9" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="E9" s="53"/>
+      <c r="F9" s="92">
         <f t="shared" ref="F9:F18" si="1">SUM((IF(B9="Sí",3,IF(B9="Regular",2,IF(B9="Parcialmente",2)))),(IF(C9="Sí",3,IF(C9="Regular",2,IF(C9="Parcialmente",2)))),(IF(D9="Sí",3,IF(D9="Regular",2,IF(D9="Parcialmente",2)))))/9</f>
         <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="36">
+      <c r="B10" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="53"/>
+      <c r="F10" s="92">
         <f t="shared" si="1"/>
         <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="36">
+      <c r="B11" s="43" t="s">
+        <v>293</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>293</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="53"/>
+      <c r="F11" s="92">
         <f t="shared" si="1"/>
         <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="36">
+      <c r="B12" s="43" t="s">
+        <v>293</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>269</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>293</v>
+      </c>
+      <c r="E12" s="53"/>
+      <c r="F12" s="92">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B13" s="81"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="53"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="36">
+      <c r="B14" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="E14" s="53"/>
+      <c r="F14" s="92">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="B15" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="C15" s="43" t="s">
+        <v>293</v>
+      </c>
+      <c r="D15" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="36">
+      <c r="E15" s="53"/>
+      <c r="F15" s="92">
         <f t="shared" si="1"/>
         <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B16" s="84"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="53"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F17" s="36">
+      <c r="B17" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>293</v>
+      </c>
+      <c r="F17" s="92">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F18" s="36">
+      <c r="C18" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>293</v>
+      </c>
+      <c r="F18" s="92">
         <f t="shared" si="1"/>
         <v>0.55555555555555558</v>
       </c>
@@ -4504,205 +4570,233 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="42" customWidth="1"/>
-    <col min="2" max="4" width="11" style="34" customWidth="1"/>
-    <col min="5" max="5" width="2" customWidth="1"/>
+    <col min="1" max="1" width="30.5" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.33203125" style="74" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="74" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="92" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" style="48" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" ht="16" thickBot="1">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="88"/>
+    </row>
+    <row r="2" spans="1:6" ht="13" thickBot="1">
+      <c r="A2" s="49"/>
+      <c r="B2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="89"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="6"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="89"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="E4" s="90">
+        <f>SUM((IF(B4="Sí",3,IF(B4="Regular",2))),(IF(C4="Sí",3,IF(C4="Regular",2))),(IF(D4="Sí",3,IF(D4="Regular",2))))/9</f>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="90">
+        <f t="shared" ref="E5:E14" si="0">SUM((IF(B5="Sí",3,IF(B5="Regular",2))),(IF(C5="Sí",3,IF(C5="Regular",2))),(IF(D5="Sí",3,IF(D5="Regular",2))))/9</f>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="90">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="E7" s="90">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="81"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="90"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="E9" s="90">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="E10" s="90">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="24">
+      <c r="A11" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>271</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>271</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>271</v>
+      </c>
+      <c r="E11" s="90"/>
+      <c r="F11" s="93" t="s">
         <v>272</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="35" t="s">
-        <v>279</v>
-      </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E12" s="8"/>
+      <c r="B12" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="E12" s="90">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="8"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="90"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="E14" s="90">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="D15" s="74" t="s">
         <v>273</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="D15" s="34" t="s">
-        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -4724,233 +4818,288 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="42" customWidth="1"/>
-    <col min="2" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="2" customWidth="1"/>
+    <col min="1" max="1" width="42" style="48" customWidth="1"/>
+    <col min="2" max="4" width="10.83203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" style="48" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="92"/>
+    <col min="7" max="7" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" ht="16" thickBot="1">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="45"/>
+    </row>
+    <row r="2" spans="1:6" ht="13" thickBot="1">
+      <c r="A2" s="49"/>
+      <c r="B2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="14" t="s">
+      <c r="E2" s="51"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="4" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="51"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" ht="30">
-      <c r="A5" s="15" t="s">
+      <c r="B4" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>293</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="52"/>
+      <c r="F4" s="92">
+        <f>SUM((IF(B4="Sí",3,IF(B4="Regular",2))),(IF(C4="Sí",3,IF(C4="Regular",2))),(IF(D4="Sí",3,IF(D4="Regular",2))))/9</f>
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="24">
+      <c r="A5" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4" t="s">
+      <c r="B5" s="43" t="s">
+        <v>293</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>293</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>293</v>
+      </c>
+      <c r="E5" s="53"/>
+      <c r="F5" s="92">
+        <f t="shared" ref="F5:F9" si="0">SUM((IF(B5="Sí",3,IF(B5="Regular",2))),(IF(C5="Sí",3,IF(C5="Regular",2))),(IF(D5="Sí",3,IF(D5="Regular",2))))/9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" ht="30">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="53"/>
+      <c r="F6" s="92">
+        <f>SUM((IF(B6="Sí",3,IF(B6="Regular",2,IF(B6="Bien",3)))),(IF(C6="Sí",3,IF(C6="Regular",2,IF(C6="Bien",3)))),(IF(D6="Sí",3,IF(D6="Regular",2,IF(D6="Bien",3)))))/9</f>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="24">
+      <c r="A7" s="42" t="s">
+        <v>299</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>293</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="E7" s="53"/>
+      <c r="F7" s="92">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="24">
+      <c r="A8" s="42" t="s">
+        <v>300</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="E8" s="53"/>
+      <c r="F8" s="92">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="24">
+      <c r="A9" s="42" t="s">
+        <v>301</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>293</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="E9" s="53"/>
+      <c r="F9" s="92">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="24">
+      <c r="A10" s="72" t="s">
+        <v>304</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="53"/>
+      <c r="F10" s="92">
+        <f>SUM((IF(B10="Sí",3,IF(B10="Regular",2,IF(B10="Parcialmente",2)))),(IF(C10="Sí",3,IF(C10="Regular",2,IF(C10="Parcialmente",2)))),(IF(D10="Sí",3,IF(D10="Regular",2,IF(D10="Parcialmente",2)))))/9</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="24" hidden="1">
+      <c r="A11" s="72" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="92">
+        <f t="shared" ref="F11:F16" si="1">SUM((IF(B11="Sí",3,IF(B11="Regular",2,IF(B11="Parcialmente",2)))),(IF(C11="Sí",3,IF(C11="Regular",2,IF(C11="Parcialmente",2)))),(IF(D11="Sí",3,IF(D11="Regular",2,IF(D11="Parcialmente",2)))))/9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="24" hidden="1">
+      <c r="A12" s="72" t="s">
+        <v>303</v>
+      </c>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="24">
+      <c r="A13" s="72" t="s">
+        <v>305</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="E13" s="53"/>
+      <c r="F13" s="92">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="24">
+      <c r="A14" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" ht="30">
-      <c r="A8" s="4" t="s">
+      <c r="B14" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>293</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="53"/>
+      <c r="F14" s="92">
+        <f t="shared" si="1"/>
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" ht="30">
-      <c r="A9" s="4" t="s">
+      <c r="B15" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="53"/>
+      <c r="F15" s="92">
+        <f>SUM((IF(B15="Sí",3,IF(B15="Regular",2,IF(B15="Bien",3)))),(IF(C15="Sí",3,IF(C15="Regular",2,IF(C15="Bien",3)))),(IF(D15="Sí",3,IF(D15="Regular",2,IF(D15="Bien",3)))))/9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" ht="30">
-      <c r="A10" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" ht="30">
-      <c r="A11" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="30">
-      <c r="A12" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E16" s="8"/>
+      <c r="B16" s="43" t="s">
+        <v>293</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>293</v>
+      </c>
+      <c r="E16" s="53"/>
+      <c r="F16" s="92">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4985,7 +5134,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="64" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B1" s="65"/>
       <c r="C1" s="65"/>
@@ -5007,7 +5156,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="14" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B3" s="67"/>
       <c r="C3" s="67"/>
@@ -5016,70 +5165,70 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="15" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="37" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="H6" s="35" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="36">
@@ -5094,22 +5243,22 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="13" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B9" s="61"/>
       <c r="C9" s="62"/>
@@ -5118,226 +5267,226 @@
     </row>
     <row r="10" spans="1:8" ht="45">
       <c r="A10" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:8" ht="30">
       <c r="A13" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:8" ht="30">
       <c r="A14" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:8" ht="30">
       <c r="A15" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:8" ht="30">
       <c r="A16" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" ht="30">
       <c r="A17" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" ht="30">
       <c r="A18" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5" ht="30">
       <c r="A19" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" ht="30">
       <c r="A20" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5" ht="30">
       <c r="A21" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" ht="30">
       <c r="A22" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5" ht="30">
       <c r="A23" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -5376,7 +5525,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1">
       <c r="A1" s="64" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B1" s="65"/>
       <c r="C1" s="65"/>
@@ -5398,7 +5547,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="14" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B3" s="67"/>
       <c r="C3" s="67"/>
@@ -5407,22 +5556,22 @@
     </row>
     <row r="4" spans="1:8" ht="30">
       <c r="A4" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="30">
       <c r="A5" s="13" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B5" s="61"/>
       <c r="C5" s="62"/>
@@ -5431,25 +5580,25 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="35" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30">
       <c r="A7" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B7" s="61"/>
       <c r="C7" s="62"/>
@@ -5458,46 +5607,46 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="26" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B10" s="69"/>
       <c r="C10" s="70"/>
@@ -5509,40 +5658,40 @@
     </row>
     <row r="11" spans="1:8" ht="30">
       <c r="A11" s="23" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="26" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="22" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="26"/>
@@ -5551,7 +5700,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="22" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B13" s="69"/>
       <c r="C13" s="70"/>
@@ -5563,31 +5712,31 @@
     </row>
     <row r="14" spans="1:8" ht="30">
       <c r="A14" s="23" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="26" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="45">
       <c r="A15" s="13" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B15" s="61"/>
       <c r="C15" s="62"/>
@@ -5596,37 +5745,37 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="16" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="19"/>
@@ -5635,137 +5784,137 @@
     </row>
     <row r="19" spans="1:9" ht="45">
       <c r="A19" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="I19" s="25" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="45">
       <c r="A20" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="45">
       <c r="A21" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="I21" s="25" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="45">
       <c r="A22" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="H22" s="26" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="I22" s="25" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="45">
       <c r="A23" s="4" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="I23" s="25" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="16" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B24" s="61"/>
       <c r="C24" s="62"/>
@@ -5773,28 +5922,28 @@
     </row>
     <row r="25" spans="1:9" ht="45">
       <c r="A25" s="4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="I25" s="25" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -5837,7 +5986,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="64" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B1" s="65"/>
       <c r="C1" s="65"/>
@@ -5859,35 +6008,35 @@
     </row>
     <row r="3" spans="1:7" ht="30">
       <c r="A3" s="14" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B3" s="67"/>
       <c r="C3" s="67"/>
       <c r="D3" s="68"/>
       <c r="E3" s="6"/>
       <c r="F3" s="27" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G4" s="3">
         <v>35</v>
@@ -5895,20 +6044,20 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G5" s="3">
         <v>20</v>
@@ -5916,20 +6065,20 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G6" s="3">
         <v>17</v>
@@ -5937,20 +6086,20 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="G7" s="3">
         <v>6</v>
@@ -5958,20 +6107,20 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G8" s="3">
         <v>5</v>
@@ -5979,20 +6128,20 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="3" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G9" s="3">
         <v>4</v>
@@ -6000,20 +6149,20 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G10" s="3">
         <v>1.5</v>
@@ -6021,20 +6170,20 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G11" s="3">
         <v>1.5</v>
@@ -6042,20 +6191,20 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G12" s="3">
         <v>1.5</v>
@@ -6063,20 +6212,20 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G13" s="3">
         <v>1.5</v>
@@ -6084,20 +6233,20 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="4" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G14" s="9">
         <v>1</v>
@@ -6105,20 +6254,20 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="4" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G15" s="9">
         <v>1</v>
@@ -6126,20 +6275,20 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="4" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G16" s="9">
         <v>1</v>
@@ -6147,20 +6296,20 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="4" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="3" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G17" s="9">
         <v>1</v>
@@ -6168,20 +6317,20 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="4" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G18" s="9">
         <v>0.5</v>
@@ -6189,7 +6338,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="29" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B19" s="30">
         <v>52</v>
@@ -6206,35 +6355,35 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="13" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B20" s="61"/>
       <c r="C20" s="62"/>
       <c r="D20" s="63"/>
       <c r="E20" s="8"/>
       <c r="F20" s="27" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="4" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G21" s="9">
         <v>5</v>
@@ -6242,20 +6391,20 @@
     </row>
     <row r="22" spans="1:7" ht="30">
       <c r="A22" s="4" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="G22" s="9">
         <v>5</v>
@@ -6263,20 +6412,20 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="4" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="G23" s="9">
         <v>5</v>
@@ -6284,20 +6433,20 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G24" s="9">
         <v>5</v>
@@ -6305,20 +6454,20 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="4" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="3" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G25" s="9">
         <v>1</v>
@@ -6326,19 +6475,19 @@
     </row>
     <row r="26" spans="1:7" ht="60">
       <c r="A26" s="4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G26" s="9">
         <v>0.5</v>
@@ -6346,7 +6495,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="29" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B27" s="30">
         <v>10</v>
@@ -6362,7 +6511,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="13" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B28" s="61"/>
       <c r="C28" s="62"/>
@@ -6373,27 +6522,27 @@
     </row>
     <row r="29" spans="1:7" ht="30">
       <c r="A29" s="4" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="32" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -6401,7 +6550,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="13" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -6409,16 +6558,16 @@
     </row>
     <row r="32" spans="1:7" ht="45">
       <c r="A32" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -6456,7 +6605,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="64" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B1" s="65"/>
       <c r="C1" s="65"/>
@@ -6478,7 +6627,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="14" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B3" s="67"/>
       <c r="C3" s="67"/>
@@ -6487,52 +6636,52 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="30">
       <c r="A5" s="15" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="13" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B7" s="61"/>
       <c r="C7" s="62"/>
@@ -6541,82 +6690,82 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" ht="30">
       <c r="A9" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" ht="30">
       <c r="A10" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" ht="30">
       <c r="A11" s="4" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="13" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B13" s="61"/>
       <c r="C13" s="62"/>
@@ -6625,22 +6774,22 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="13" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B15" s="61"/>
       <c r="C15" s="62"/>
@@ -6649,22 +6798,22 @@
     </row>
     <row r="16" spans="1:5" ht="30">
       <c r="A16" s="4" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="13" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B17" s="61"/>
       <c r="C17" s="62"/>
@@ -6673,31 +6822,31 @@
     </row>
     <row r="18" spans="1:5" ht="30">
       <c r="A18" s="4" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="4" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E19" s="8"/>
     </row>

--- a/TFC - Textos/Plantilla-resultados-final.xlsx
+++ b/TFC - Textos/Plantilla-resultados-final.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23117"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Páginas de inicio" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="308">
   <si>
     <t>PÁGINAS DE INICIO</t>
   </si>
@@ -1179,6 +1179,12 @@
   </si>
   <si>
     <t>El usuario puede disfrutar de todos los contenidos sin necesidad de tener que instalar plugins adicionales</t>
+  </si>
+  <si>
+    <t>Puntuación</t>
+  </si>
+  <si>
+    <t>Ciudad</t>
   </si>
 </sst>
 </file>
@@ -1258,7 +1264,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1280,6 +1286,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1402,7 +1414,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1432,8 +1444,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1593,6 +1607,48 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1611,6 +1667,45 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1620,21 +1715,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1644,74 +1724,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="31">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1726,6 +1743,7 @@
     <cellStyle name="Hipervínculo" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -1740,6 +1758,7 @@
     <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2077,8 +2096,8 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <pane ySplit="2" topLeftCell="A16" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" sqref="A1:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2086,7 +2105,7 @@
     <col min="1" max="1" width="41.83203125" style="48" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.33203125" style="48" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="92" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="67" customWidth="1"/>
     <col min="6" max="6" width="6.6640625" style="48" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.83203125" style="48" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.5" style="48" bestFit="1" customWidth="1"/>
@@ -2096,14 +2115,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="46" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="94" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="43" t="s">
@@ -2130,7 +2149,7 @@
       <c r="D2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="89"/>
+      <c r="E2" s="64"/>
       <c r="F2" s="46"/>
       <c r="G2" s="39" t="s">
         <v>10</v>
@@ -2149,10 +2168,10 @@
       <c r="A3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="89"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="64"/>
       <c r="F3" s="51"/>
       <c r="G3" s="41"/>
       <c r="H3" s="52"/>
@@ -2172,7 +2191,7 @@
       <c r="D4" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="E4" s="90">
+      <c r="E4" s="65">
         <f>SUM((IF(B4="Sí",3,IF(B4="Regular",2,IF(B4="Parcialmente",2)))),(IF(C4="Sí",3,IF(C4="Regular",2,IF(C4="Parcialmente",2)))),(IF(D4="Sí",3,IF(D4="Regular",2,IF(D4="Parcialmente",2)))))/9</f>
         <v>1</v>
       </c>
@@ -2185,10 +2204,10 @@
       <c r="A5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="90">
+      <c r="B5" s="69"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="65">
         <f t="shared" ref="E5:E22" si="0">SUM((IF(B5="Sí",3,IF(B5="Regular",2,IF(B5="Parcialmente",2)))),(IF(C5="Sí",3,IF(C5="Regular",2,IF(C5="Parcialmente",2)))),(IF(D5="Sí",3,IF(D5="Regular",2,IF(D5="Parcialmente",2)))))/9</f>
         <v>0</v>
       </c>
@@ -2208,7 +2227,7 @@
       <c r="D6" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="E6" s="90">
+      <c r="E6" s="65">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
@@ -2227,7 +2246,7 @@
       <c r="D7" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="90">
+      <c r="E7" s="65">
         <f t="shared" si="0"/>
         <v>0.55555555555555558</v>
       </c>
@@ -2246,7 +2265,7 @@
       <c r="D8" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="E8" s="90">
+      <c r="E8" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2269,7 +2288,7 @@
       <c r="D9" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="E9" s="90">
+      <c r="E9" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2279,10 +2298,10 @@
       <c r="A10" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="90">
+      <c r="B10" s="69"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2301,7 +2320,7 @@
       <c r="D11" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="E11" s="90">
+      <c r="E11" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2320,7 +2339,7 @@
       <c r="D12" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="E12" s="90">
+      <c r="E12" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2339,7 +2358,7 @@
       <c r="D13" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="E13" s="90">
+      <c r="E13" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2358,7 +2377,7 @@
       <c r="D14" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="E14" s="90">
+      <c r="E14" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2377,7 +2396,7 @@
       <c r="D15" s="43" t="s">
         <v>294</v>
       </c>
-      <c r="E15" s="90">
+      <c r="E15" s="65">
         <f>SUM((IF(B15="Sí",3,IF(B15="Regular",2,IF(B15="Parcialmente",2,IF(B15="Extra",3))))),(IF(C15="Sí",3,IF(C15="Regular",2,IF(C15="Parcialmente",2,IF(C15="Extra",3))))),(IF(D15="Sí",3,IF(D15="Regular",2,IF(D15="Parcialmente",2,IF(D15="Extra",3))))))/9</f>
         <v>1</v>
       </c>
@@ -2390,10 +2409,10 @@
       <c r="A16" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="90"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="65"/>
       <c r="F16" s="53"/>
     </row>
     <row r="17" spans="1:6">
@@ -2409,7 +2428,7 @@
       <c r="D17" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="E17" s="90">
+      <c r="E17" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2428,7 +2447,7 @@
       <c r="D18" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="E18" s="90">
+      <c r="E18" s="65">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
@@ -2447,7 +2466,7 @@
       <c r="D19" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="E19" s="90">
+      <c r="E19" s="65">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
@@ -2466,7 +2485,7 @@
       <c r="D20" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="E20" s="90">
+      <c r="E20" s="65">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
@@ -2485,7 +2504,7 @@
       <c r="D21" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="E21" s="90">
+      <c r="E21" s="65">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
@@ -2504,7 +2523,7 @@
       <c r="D22" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="E22" s="90">
+      <c r="E22" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2512,33 +2531,55 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="91"/>
+      <c r="B23" s="54">
+        <v>23</v>
+      </c>
+      <c r="C23" s="54">
+        <v>17</v>
+      </c>
+      <c r="D23" s="54">
+        <v>20</v>
+      </c>
+      <c r="E23" s="66"/>
       <c r="F23" s="53"/>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
+    <row r="24" spans="1:6" ht="24">
+      <c r="A24" s="42" t="s">
+        <v>307</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>306</v>
+      </c>
       <c r="C24" s="54"/>
       <c r="D24" s="54"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
+      <c r="A25" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="42">
+        <v>23</v>
+      </c>
       <c r="C25" s="54"/>
       <c r="D25" s="54"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
+      <c r="A26" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="42">
+        <v>17</v>
+      </c>
       <c r="C26" s="54"/>
       <c r="D26" s="54"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
+      <c r="A27" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="42">
+        <v>20</v>
+      </c>
       <c r="C27" s="54"/>
       <c r="D27" s="54"/>
     </row>
@@ -2608,7 +2649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -2620,12 +2661,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="83" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="66"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="85"/>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" ht="16" thickBot="1">
@@ -2645,9 +2686,9 @@
       <c r="A3" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="68"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5">
@@ -2834,9 +2875,9 @@
       <c r="A16" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="63"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="90"/>
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
@@ -2970,7 +3011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -2982,12 +3023,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="83" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="66"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="85"/>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:6" ht="16" thickBot="1">
@@ -3007,9 +3048,9 @@
       <c r="A3" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="68"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:6">
@@ -3061,9 +3102,9 @@
       <c r="A7" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="63"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="90"/>
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:6">
@@ -3166,9 +3207,9 @@
       <c r="A15" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="90"/>
     </row>
     <row r="16" spans="1:6" ht="30">
       <c r="A16" s="4" t="s">
@@ -3247,9 +3288,9 @@
       <c r="A21" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="63"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="90"/>
     </row>
     <row r="22" spans="1:4" ht="45">
       <c r="A22" s="4" t="s">
@@ -3283,9 +3324,9 @@
       <c r="A24" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="63"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="90"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
@@ -3339,30 +3380,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37" style="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="74" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="74" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="74" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="57" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="57" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" style="48" customWidth="1"/>
-    <col min="6" max="6" width="9" style="78" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="58" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="48" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="77"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="80"/>
       <c r="E1" s="45"/>
     </row>
     <row r="2" spans="1:9" ht="13" thickBot="1">
@@ -3382,9 +3423,9 @@
       <c r="A3" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="82"/>
       <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:9">
@@ -3401,13 +3442,13 @@
         <v>292</v>
       </c>
       <c r="E4" s="52"/>
-      <c r="F4" s="78">
+      <c r="F4" s="58">
         <f>SUM((IF(B4="Sí",3,IF(B4="Regular",2))),(IF(C4="Sí",3,IF(C4="Regular",2))),(IF(D4="Sí",3,IF(D4="Regular",2))))/9</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="55" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="43" t="s">
@@ -3420,7 +3461,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="53"/>
-      <c r="F5" s="78">
+      <c r="F5" s="58">
         <f>SUM((IF(B5="Sí",3,IF(B5="Regular",2,IF(B5="Parcialmente",2)))),(IF(C5="Sí",3,IF(C5="Regular",2,IF(C5="Parcialmente",2)))),(IF(D5="Sí",3,IF(D5="Regular",2,IF(D5="Parcialmente",2)))))/9</f>
         <v>0.88888888888888884</v>
       </c>
@@ -3439,8 +3480,8 @@
         <v>145</v>
       </c>
       <c r="E6" s="53"/>
-      <c r="F6" s="78">
-        <f t="shared" ref="F4:F8" si="0">SUM((IF(B6="Sí",3,IF(B6="Regular",2))),(IF(C6="Sí",3,IF(C6="Regular",2))),(IF(D6="Sí",3,IF(D6="Regular",2))))/9</f>
+      <c r="F6" s="58">
+        <f t="shared" ref="F6:F8" si="0">SUM((IF(B6="Sí",3,IF(B6="Regular",2))),(IF(C6="Sí",3,IF(C6="Regular",2))),(IF(D6="Sí",3,IF(D6="Regular",2))))/9</f>
         <v>0.77777777777777779</v>
       </c>
     </row>
@@ -3458,7 +3499,7 @@
         <v>292</v>
       </c>
       <c r="E7" s="53"/>
-      <c r="F7" s="78">
+      <c r="F7" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3477,7 +3518,7 @@
         <v>292</v>
       </c>
       <c r="E8" s="53"/>
-      <c r="F8" s="78">
+      <c r="F8" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3503,7 +3544,7 @@
         <v>145</v>
       </c>
       <c r="E9" s="53"/>
-      <c r="F9" s="78">
+      <c r="F9" s="58">
         <f>SUM((IF(B9="Sí",3,IF(B9="Regular",2))),(IF(C9="Sí",3,IF(C9="Regular",2))),(IF(D9="Sí",3,IF(D9="Regular",2))))/9</f>
         <v>0.88888888888888884</v>
       </c>
@@ -3512,7 +3553,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="55" t="s">
         <v>42</v>
       </c>
       <c r="B10" s="43" t="s">
@@ -3525,7 +3566,7 @@
         <v>145</v>
       </c>
       <c r="E10" s="53"/>
-      <c r="F10" s="78">
+      <c r="F10" s="58">
         <f t="shared" ref="F10:F49" si="1">SUM((IF(B10="Sí",3,IF(B10="Regular",2))),(IF(C10="Sí",3,IF(C10="Regular",2))),(IF(D10="Sí",3,IF(D10="Regular",2))))/9</f>
         <v>0.88888888888888884</v>
       </c>
@@ -3547,7 +3588,7 @@
         <v>293</v>
       </c>
       <c r="E11" s="53"/>
-      <c r="F11" s="78">
+      <c r="F11" s="58">
         <f t="shared" si="1"/>
         <v>0.22222222222222221</v>
       </c>
@@ -3566,7 +3607,7 @@
         <v>293</v>
       </c>
       <c r="E12" s="53"/>
-      <c r="F12" s="78">
+      <c r="F12" s="58">
         <f t="shared" si="1"/>
         <v>0.55555555555555558</v>
       </c>
@@ -3585,7 +3626,7 @@
         <v>145</v>
       </c>
       <c r="E13" s="53"/>
-      <c r="F13" s="78">
+      <c r="F13" s="58">
         <f t="shared" si="1"/>
         <v>0.88888888888888884</v>
       </c>
@@ -3594,9 +3635,9 @@
       <c r="A14" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="83"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="77"/>
       <c r="E14" s="53"/>
     </row>
     <row r="15" spans="1:9">
@@ -3613,7 +3654,7 @@
         <v>292</v>
       </c>
       <c r="E15" s="53"/>
-      <c r="F15" s="78">
+      <c r="F15" s="58">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3632,7 +3673,7 @@
         <v>292</v>
       </c>
       <c r="E16" s="53"/>
-      <c r="F16" s="78">
+      <c r="F16" s="58">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3651,7 +3692,7 @@
         <v>145</v>
       </c>
       <c r="E17" s="53"/>
-      <c r="F17" s="78">
+      <c r="F17" s="58">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
@@ -3670,7 +3711,7 @@
         <v>145</v>
       </c>
       <c r="E18" s="53"/>
-      <c r="F18" s="78">
+      <c r="F18" s="58">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
@@ -3689,7 +3730,7 @@
         <v>293</v>
       </c>
       <c r="E19" s="53"/>
-      <c r="F19" s="78">
+      <c r="F19" s="58">
         <f t="shared" si="1"/>
         <v>0.55555555555555558</v>
       </c>
@@ -3708,7 +3749,7 @@
         <v>292</v>
       </c>
       <c r="E20" s="53"/>
-      <c r="F20" s="78">
+      <c r="F20" s="58">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3717,9 +3758,9 @@
       <c r="A21" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="84"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="86"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="61"/>
       <c r="E21" s="53"/>
     </row>
     <row r="22" spans="1:6">
@@ -3735,7 +3776,7 @@
       <c r="D22" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="F22" s="78">
+      <c r="F22" s="58">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3753,7 +3794,7 @@
       <c r="D23" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="F23" s="78">
+      <c r="F23" s="58">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3771,7 +3812,7 @@
       <c r="D24" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="F24" s="78">
+      <c r="F24" s="58">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
@@ -3789,7 +3830,7 @@
       <c r="D25" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="F25" s="78">
+      <c r="F25" s="58">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
@@ -3807,7 +3848,7 @@
       <c r="D26" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="F26" s="78">
+      <c r="F26" s="58">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
@@ -3816,9 +3857,9 @@
       <c r="A27" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="81"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="83"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="77"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="42" t="s">
@@ -3833,7 +3874,7 @@
       <c r="D28" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="F28" s="78">
+      <c r="F28" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3851,7 +3892,7 @@
       <c r="D29" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="F29" s="78">
+      <c r="F29" s="58">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
@@ -3869,7 +3910,7 @@
       <c r="D30" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="F30" s="78">
+      <c r="F30" s="58">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3887,7 +3928,7 @@
       <c r="D31" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="F31" s="78">
+      <c r="F31" s="58">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
@@ -3905,7 +3946,7 @@
       <c r="D32" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="F32" s="78">
+      <c r="F32" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3923,7 +3964,7 @@
       <c r="D33" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="F33" s="78">
+      <c r="F33" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3941,7 +3982,7 @@
       <c r="D34" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="F34" s="78">
+      <c r="F34" s="58">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3959,7 +4000,7 @@
       <c r="D35" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="F35" s="78">
+      <c r="F35" s="58">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
@@ -3977,7 +4018,7 @@
       <c r="D36" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="F36" s="78">
+      <c r="F36" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3995,7 +4036,7 @@
       <c r="D37" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="F37" s="78">
+      <c r="F37" s="58">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
@@ -4013,7 +4054,7 @@
       <c r="D38" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="F38" s="78">
+      <c r="F38" s="58">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
@@ -4031,7 +4072,7 @@
       <c r="D39" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="F39" s="78">
+      <c r="F39" s="58">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -4049,7 +4090,7 @@
       <c r="D40" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="F40" s="78">
+      <c r="F40" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4067,7 +4108,7 @@
       <c r="D41" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="F41" s="78">
+      <c r="F41" s="58">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -4085,7 +4126,7 @@
       <c r="D42" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="F42" s="78">
+      <c r="F42" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4103,7 +4144,7 @@
       <c r="D43" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="F43" s="78">
+      <c r="F43" s="58">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -4121,7 +4162,7 @@
       <c r="D44" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="F44" s="78">
+      <c r="F44" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4139,7 +4180,7 @@
       <c r="D45" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="F45" s="78">
+      <c r="F45" s="58">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -4157,7 +4198,7 @@
       <c r="D46" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="F46" s="78">
+      <c r="F46" s="58">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
@@ -4175,25 +4216,25 @@
       <c r="D47" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="F47" s="78">
+      <c r="F47" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="24">
-      <c r="A48" s="73" t="s">
+      <c r="A48" s="56" t="s">
         <v>297</v>
       </c>
-      <c r="B48" s="87" t="s">
+      <c r="B48" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="C48" s="87" t="s">
+      <c r="C48" s="62" t="s">
         <v>290</v>
       </c>
-      <c r="D48" s="87" t="s">
+      <c r="D48" s="62" t="s">
         <v>291</v>
       </c>
-      <c r="F48" s="78">
+      <c r="F48" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4211,13 +4252,13 @@
       <c r="D49" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="F49" s="78">
+      <c r="F49" s="58">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="24">
-      <c r="B50" s="74" t="s">
+      <c r="B50" s="57" t="s">
         <v>295</v>
       </c>
     </row>
@@ -4253,18 +4294,18 @@
     <col min="1" max="1" width="36" style="48" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11" style="48" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" style="48" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="92" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="67" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2.5" style="48" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="77"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="80"/>
       <c r="E1" s="45"/>
     </row>
     <row r="2" spans="1:7" ht="13" thickBot="1">
@@ -4284,9 +4325,9 @@
       <c r="A3" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="82"/>
       <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:7">
@@ -4303,13 +4344,13 @@
         <v>292</v>
       </c>
       <c r="E4" s="52"/>
-      <c r="F4" s="92">
-        <f t="shared" ref="F4:F7" si="0">SUM((IF(B4="Sí",3,IF(B4="Regular",2,IF(B4="Parcialmente",2)))),(IF(C4="Sí",3,IF(C4="Regular",2,IF(C4="Parcialmente",2)))),(IF(D4="Sí",3,IF(D4="Regular",2,IF(D4="Parcialmente",2)))))/9</f>
+      <c r="F4" s="67">
+        <f t="shared" ref="F4:F6" si="0">SUM((IF(B4="Sí",3,IF(B4="Regular",2,IF(B4="Parcialmente",2)))),(IF(C4="Sí",3,IF(C4="Regular",2,IF(C4="Parcialmente",2)))),(IF(D4="Sí",3,IF(D4="Regular",2,IF(D4="Parcialmente",2)))))/9</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="55" t="s">
         <v>82</v>
       </c>
       <c r="B5" s="43" t="s">
@@ -4322,7 +4363,7 @@
         <v>145</v>
       </c>
       <c r="E5" s="53"/>
-      <c r="F5" s="92">
+      <c r="F5" s="67">
         <f t="shared" si="0"/>
         <v>0.44444444444444442</v>
       </c>
@@ -4341,7 +4382,7 @@
         <v>145</v>
       </c>
       <c r="E6" s="53"/>
-      <c r="F6" s="92">
+      <c r="F6" s="67">
         <f t="shared" si="0"/>
         <v>0.88888888888888884</v>
       </c>
@@ -4350,9 +4391,9 @@
       <c r="A7" s="44" t="s">
         <v>267</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="83"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="77"/>
       <c r="E7" s="53"/>
     </row>
     <row r="8" spans="1:7">
@@ -4369,7 +4410,7 @@
         <v>18</v>
       </c>
       <c r="E8" s="53"/>
-      <c r="F8" s="92">
+      <c r="F8" s="67">
         <f>SUM((IF(B8="Sí",3,IF(B8="Regular",2,IF(B8="Parcialmente",2)))),(IF(C8="Sí",3,IF(C8="Regular",2,IF(C8="Parcialmente",2)))),(IF(D8="Sí",3,IF(D8="Regular",2,IF(D8="Parcialmente",2)))))/9</f>
         <v>0.66666666666666663</v>
       </c>
@@ -4392,7 +4433,7 @@
         <v>292</v>
       </c>
       <c r="E9" s="53"/>
-      <c r="F9" s="92">
+      <c r="F9" s="67">
         <f t="shared" ref="F9:F18" si="1">SUM((IF(B9="Sí",3,IF(B9="Regular",2,IF(B9="Parcialmente",2)))),(IF(C9="Sí",3,IF(C9="Regular",2,IF(C9="Parcialmente",2)))),(IF(D9="Sí",3,IF(D9="Regular",2,IF(D9="Parcialmente",2)))))/9</f>
         <v>0.77777777777777779</v>
       </c>
@@ -4411,13 +4452,13 @@
         <v>18</v>
       </c>
       <c r="E10" s="53"/>
-      <c r="F10" s="92">
+      <c r="F10" s="67">
         <f t="shared" si="1"/>
         <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="55" t="s">
         <v>87</v>
       </c>
       <c r="B11" s="43" t="s">
@@ -4430,7 +4471,7 @@
         <v>18</v>
       </c>
       <c r="E11" s="53"/>
-      <c r="F11" s="92">
+      <c r="F11" s="67">
         <f t="shared" si="1"/>
         <v>0.22222222222222221</v>
       </c>
@@ -4449,7 +4490,7 @@
         <v>293</v>
       </c>
       <c r="E12" s="53"/>
-      <c r="F12" s="92">
+      <c r="F12" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4458,9 +4499,9 @@
       <c r="A13" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="83"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="77"/>
       <c r="E13" s="53"/>
     </row>
     <row r="14" spans="1:7">
@@ -4477,7 +4518,7 @@
         <v>292</v>
       </c>
       <c r="E14" s="53"/>
-      <c r="F14" s="92">
+      <c r="F14" s="67">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -4496,7 +4537,7 @@
         <v>18</v>
       </c>
       <c r="E15" s="53"/>
-      <c r="F15" s="92">
+      <c r="F15" s="67">
         <f t="shared" si="1"/>
         <v>0.44444444444444442</v>
       </c>
@@ -4505,9 +4546,9 @@
       <c r="A16" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="84"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="86"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="61"/>
       <c r="E16" s="53"/>
     </row>
     <row r="17" spans="1:6">
@@ -4523,7 +4564,7 @@
       <c r="D17" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="F17" s="92">
+      <c r="F17" s="67">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
@@ -4541,7 +4582,7 @@
       <c r="D18" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="F18" s="92">
+      <c r="F18" s="67">
         <f t="shared" si="1"/>
         <v>0.55555555555555558</v>
       </c>
@@ -4576,21 +4617,21 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="30.5" style="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.33203125" style="74" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="74" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="92" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.33203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="67" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="48" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="88"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="63"/>
     </row>
     <row r="2" spans="1:6" ht="13" thickBot="1">
       <c r="A2" s="49"/>
@@ -4603,16 +4644,16 @@
       <c r="D2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="89"/>
+      <c r="E2" s="64"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="89"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="64"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="42" t="s">
@@ -4627,13 +4668,13 @@
       <c r="D4" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="E4" s="90">
+      <c r="E4" s="65">
         <f>SUM((IF(B4="Sí",3,IF(B4="Regular",2))),(IF(C4="Sí",3,IF(C4="Regular",2))),(IF(D4="Sí",3,IF(D4="Regular",2))))/9</f>
         <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="55" t="s">
         <v>97</v>
       </c>
       <c r="B5" s="43" t="s">
@@ -4645,7 +4686,7 @@
       <c r="D5" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="E5" s="90">
+      <c r="E5" s="65">
         <f t="shared" ref="E5:E14" si="0">SUM((IF(B5="Sí",3,IF(B5="Regular",2))),(IF(C5="Sí",3,IF(C5="Regular",2))),(IF(D5="Sí",3,IF(D5="Regular",2))))/9</f>
         <v>0.88888888888888884</v>
       </c>
@@ -4663,7 +4704,7 @@
       <c r="D6" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="E6" s="90">
+      <c r="E6" s="65">
         <f t="shared" si="0"/>
         <v>0.88888888888888884</v>
       </c>
@@ -4681,7 +4722,7 @@
       <c r="D7" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="E7" s="90">
+      <c r="E7" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -4690,10 +4731,10 @@
       <c r="A8" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="90"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="65"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="42" t="s">
@@ -4708,7 +4749,7 @@
       <c r="D9" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="E9" s="90">
+      <c r="E9" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -4726,7 +4767,7 @@
       <c r="D10" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="E10" s="90">
+      <c r="E10" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -4744,8 +4785,8 @@
       <c r="D11" s="43" t="s">
         <v>271</v>
       </c>
-      <c r="E11" s="90"/>
-      <c r="F11" s="93" t="s">
+      <c r="E11" s="65"/>
+      <c r="F11" s="68" t="s">
         <v>272</v>
       </c>
     </row>
@@ -4762,7 +4803,7 @@
       <c r="D12" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="E12" s="90">
+      <c r="E12" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -4771,10 +4812,10 @@
       <c r="A13" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="B13" s="84"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="90"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="65"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="42" t="s">
@@ -4789,13 +4830,13 @@
       <c r="D14" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="E14" s="90">
+      <c r="E14" s="65">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="D15" s="74" t="s">
+      <c r="D15" s="57" t="s">
         <v>273</v>
       </c>
     </row>
@@ -4821,7 +4862,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -4830,18 +4871,18 @@
     <col min="1" max="1" width="42" style="48" customWidth="1"/>
     <col min="2" max="4" width="10.83203125" style="48" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" style="48" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="92"/>
+    <col min="6" max="6" width="10.83203125" style="67"/>
     <col min="7" max="7" width="11" style="48" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="77"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="80"/>
       <c r="E1" s="45"/>
     </row>
     <row r="2" spans="1:6" ht="13" thickBot="1">
@@ -4861,9 +4902,9 @@
       <c r="A3" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="82"/>
       <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:6">
@@ -4880,13 +4921,13 @@
         <v>145</v>
       </c>
       <c r="E4" s="52"/>
-      <c r="F4" s="92">
+      <c r="F4" s="67">
         <f>SUM((IF(B4="Sí",3,IF(B4="Regular",2))),(IF(C4="Sí",3,IF(C4="Regular",2))),(IF(D4="Sí",3,IF(D4="Regular",2))))/9</f>
         <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="55" t="s">
         <v>110</v>
       </c>
       <c r="B5" s="43" t="s">
@@ -4899,7 +4940,7 @@
         <v>293</v>
       </c>
       <c r="E5" s="53"/>
-      <c r="F5" s="92">
+      <c r="F5" s="67">
         <f t="shared" ref="F5:F9" si="0">SUM((IF(B5="Sí",3,IF(B5="Regular",2))),(IF(C5="Sí",3,IF(C5="Regular",2))),(IF(D5="Sí",3,IF(D5="Regular",2))))/9</f>
         <v>0</v>
       </c>
@@ -4918,7 +4959,7 @@
         <v>145</v>
       </c>
       <c r="E6" s="53"/>
-      <c r="F6" s="92">
+      <c r="F6" s="67">
         <f>SUM((IF(B6="Sí",3,IF(B6="Regular",2,IF(B6="Bien",3)))),(IF(C6="Sí",3,IF(C6="Regular",2,IF(C6="Bien",3)))),(IF(D6="Sí",3,IF(D6="Regular",2,IF(D6="Bien",3)))))/9</f>
         <v>0.88888888888888884</v>
       </c>
@@ -4937,7 +4978,7 @@
         <v>292</v>
       </c>
       <c r="E7" s="53"/>
-      <c r="F7" s="92">
+      <c r="F7" s="67">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
@@ -4956,7 +4997,7 @@
         <v>292</v>
       </c>
       <c r="E8" s="53"/>
-      <c r="F8" s="92">
+      <c r="F8" s="67">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -4975,13 +5016,13 @@
         <v>292</v>
       </c>
       <c r="E9" s="53"/>
-      <c r="F9" s="92">
+      <c r="F9" s="67">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="55" t="s">
         <v>304</v>
       </c>
       <c r="B10" s="43" t="s">
@@ -4994,39 +5035,39 @@
         <v>18</v>
       </c>
       <c r="E10" s="53"/>
-      <c r="F10" s="92">
+      <c r="F10" s="67">
         <f>SUM((IF(B10="Sí",3,IF(B10="Regular",2,IF(B10="Parcialmente",2)))),(IF(C10="Sí",3,IF(C10="Regular",2,IF(C10="Parcialmente",2)))),(IF(D10="Sí",3,IF(D10="Regular",2,IF(D10="Parcialmente",2)))))/9</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24" hidden="1">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="55" t="s">
         <v>302</v>
       </c>
       <c r="B11" s="43"/>
       <c r="C11" s="43"/>
       <c r="D11" s="43"/>
       <c r="E11" s="53"/>
-      <c r="F11" s="92">
+      <c r="F11" s="67">
         <f t="shared" ref="F11:F16" si="1">SUM((IF(B11="Sí",3,IF(B11="Regular",2,IF(B11="Parcialmente",2)))),(IF(C11="Sí",3,IF(C11="Regular",2,IF(C11="Parcialmente",2)))),(IF(D11="Sí",3,IF(D11="Regular",2,IF(D11="Parcialmente",2)))))/9</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" hidden="1">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="55" t="s">
         <v>303</v>
       </c>
       <c r="B12" s="43"/>
       <c r="C12" s="43"/>
       <c r="D12" s="43"/>
       <c r="E12" s="53"/>
-      <c r="F12" s="92">
+      <c r="F12" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="24">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="55" t="s">
         <v>305</v>
       </c>
       <c r="B13" s="43" t="s">
@@ -5039,13 +5080,13 @@
         <v>292</v>
       </c>
       <c r="E13" s="53"/>
-      <c r="F13" s="92">
+      <c r="F13" s="67">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="55" t="s">
         <v>112</v>
       </c>
       <c r="B14" s="43" t="s">
@@ -5058,13 +5099,13 @@
         <v>18</v>
       </c>
       <c r="E14" s="53"/>
-      <c r="F14" s="92">
+      <c r="F14" s="67">
         <f t="shared" si="1"/>
         <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="55" t="s">
         <v>113</v>
       </c>
       <c r="B15" s="43" t="s">
@@ -5077,13 +5118,13 @@
         <v>146</v>
       </c>
       <c r="E15" s="53"/>
-      <c r="F15" s="92">
+      <c r="F15" s="67">
         <f>SUM((IF(B15="Sí",3,IF(B15="Regular",2,IF(B15="Bien",3)))),(IF(C15="Sí",3,IF(C15="Regular",2,IF(C15="Bien",3)))),(IF(D15="Sí",3,IF(D15="Regular",2,IF(D15="Bien",3)))))/9</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="55" t="s">
         <v>114</v>
       </c>
       <c r="B16" s="43" t="s">
@@ -5096,7 +5137,7 @@
         <v>293</v>
       </c>
       <c r="E16" s="53"/>
-      <c r="F16" s="92">
+      <c r="F16" s="67">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
@@ -5121,7 +5162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -5133,12 +5174,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="66"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="85"/>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="16" thickBot="1">
@@ -5158,9 +5199,9 @@
       <c r="A3" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="68"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:8">
@@ -5260,9 +5301,9 @@
       <c r="A9" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="63"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="90"/>
       <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:8" ht="45">
@@ -5510,7 +5551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -5524,12 +5565,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="66"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="85"/>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="16" thickBot="1">
@@ -5549,9 +5590,9 @@
       <c r="A3" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="68"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="30">
@@ -5573,9 +5614,9 @@
       <c r="A5" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="63"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:8">
@@ -5600,9 +5641,9 @@
       <c r="A7" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="63"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="90"/>
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:8">
@@ -5648,9 +5689,9 @@
       <c r="A10" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="71"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="93"/>
       <c r="E10" s="8"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
@@ -5702,9 +5743,9 @@
       <c r="A13" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="71"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="93"/>
       <c r="E13" s="8"/>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
@@ -5738,9 +5779,9 @@
       <c r="A15" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="90"/>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:8">
@@ -5916,9 +5957,9 @@
       <c r="A24" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="63"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="90"/>
     </row>
     <row r="25" spans="1:9" ht="45">
       <c r="A25" s="4" t="s">
@@ -5972,7 +6013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -5985,12 +6026,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="83" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="66"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="85"/>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:7" ht="16" thickBot="1">
@@ -6010,9 +6051,9 @@
       <c r="A3" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="68"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
       <c r="E3" s="6"/>
       <c r="F3" s="27" t="s">
         <v>173</v>
@@ -6357,9 +6398,9 @@
       <c r="A20" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="B20" s="61"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="63"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="90"/>
       <c r="E20" s="8"/>
       <c r="F20" s="27" t="s">
         <v>175</v>
@@ -6513,9 +6554,9 @@
       <c r="A28" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="B28" s="61"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="63"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="90"/>
       <c r="E28" s="8"/>
       <c r="F28" s="31"/>
       <c r="G28" s="31"/>
@@ -6592,7 +6633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B18" sqref="B18:D19"/>
     </sheetView>
   </sheetViews>
@@ -6604,12 +6645,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="83" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="66"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="85"/>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" ht="16" thickBot="1">
@@ -6629,9 +6670,9 @@
       <c r="A3" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="68"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5">
@@ -6683,9 +6724,9 @@
       <c r="A7" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="63"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="90"/>
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5">
@@ -6767,9 +6808,9 @@
       <c r="A13" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="63"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="90"/>
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
@@ -6791,9 +6832,9 @@
       <c r="A15" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="90"/>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" ht="30">
@@ -6815,9 +6856,9 @@
       <c r="A17" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="B17" s="61"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="63"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="90"/>
       <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" ht="30">

--- a/TFC - Textos/Plantilla-resultados-final.xlsx
+++ b/TFC - Textos/Plantilla-resultados-final.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23117"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="20480" tabRatio="500" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Páginas de inicio" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="307">
   <si>
     <t>PÁGINAS DE INICIO</t>
   </si>
@@ -992,9 +992,6 @@
   </si>
   <si>
     <t>Servicios y funcionalidades adicionales que aportan valor añadido al usuario</t>
-  </si>
-  <si>
-    <t>Descarga y/o envío de postales virtuales (e-cards)</t>
   </si>
   <si>
     <t>Descarga de fondos de pantalla</t>
@@ -1414,8 +1411,68 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1649,6 +1706,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1724,11 +1784,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="91">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1744,6 +1801,36 @@
     <cellStyle name="Hipervínculo" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -1759,6 +1846,36 @@
     <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2096,7 +2213,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A16" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" sqref="A1:D22"/>
     </sheetView>
   </sheetViews>
@@ -2115,14 +2232,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
       <c r="E1" s="63"/>
-      <c r="F1" s="94" t="s">
+      <c r="F1" s="69" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="43" t="s">
@@ -2168,9 +2285,9 @@
       <c r="A3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="74"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="64"/>
       <c r="F3" s="51"/>
       <c r="G3" s="41"/>
@@ -2183,13 +2300,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E4" s="65">
         <f>SUM((IF(B4="Sí",3,IF(B4="Regular",2,IF(B4="Parcialmente",2)))),(IF(C4="Sí",3,IF(C4="Regular",2,IF(C4="Parcialmente",2)))),(IF(D4="Sí",3,IF(D4="Regular",2,IF(D4="Parcialmente",2)))))/9</f>
@@ -2204,9 +2321,9 @@
       <c r="A5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="71"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="72"/>
       <c r="E5" s="65">
         <f t="shared" ref="E5:E22" si="0">SUM((IF(B5="Sí",3,IF(B5="Regular",2,IF(B5="Parcialmente",2)))),(IF(C5="Sí",3,IF(C5="Regular",2,IF(C5="Parcialmente",2)))),(IF(D5="Sí",3,IF(D5="Regular",2,IF(D5="Parcialmente",2)))))/9</f>
         <v>0</v>
@@ -2219,13 +2336,13 @@
         <v>16</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E6" s="65">
         <f t="shared" si="0"/>
@@ -2238,10 +2355,10 @@
         <v>17</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D7" s="43" t="s">
         <v>18</v>
@@ -2257,13 +2374,13 @@
         <v>19</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E8" s="65">
         <f t="shared" si="0"/>
@@ -2280,13 +2397,13 @@
         <v>20</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E9" s="65">
         <f t="shared" si="0"/>
@@ -2298,9 +2415,9 @@
       <c r="A10" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="71"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="72"/>
       <c r="E10" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2312,13 +2429,13 @@
         <v>22</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E11" s="65">
         <f t="shared" si="0"/>
@@ -2331,13 +2448,13 @@
         <v>23</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E12" s="65">
         <f t="shared" si="0"/>
@@ -2350,13 +2467,13 @@
         <v>24</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E13" s="65">
         <f t="shared" si="0"/>
@@ -2369,13 +2486,13 @@
         <v>25</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E14" s="65">
         <f t="shared" si="0"/>
@@ -2388,13 +2505,13 @@
         <v>26</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E15" s="65">
         <f>SUM((IF(B15="Sí",3,IF(B15="Regular",2,IF(B15="Parcialmente",2,IF(B15="Extra",3))))),(IF(C15="Sí",3,IF(C15="Regular",2,IF(C15="Parcialmente",2,IF(C15="Extra",3))))),(IF(D15="Sí",3,IF(D15="Regular",2,IF(D15="Parcialmente",2,IF(D15="Extra",3))))))/9</f>
@@ -2409,9 +2526,9 @@
       <c r="A16" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="71"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="72"/>
       <c r="E16" s="65"/>
       <c r="F16" s="53"/>
     </row>
@@ -2420,13 +2537,13 @@
         <v>28</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E17" s="65">
         <f t="shared" si="0"/>
@@ -2439,13 +2556,13 @@
         <v>29</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D18" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E18" s="65">
         <f t="shared" si="0"/>
@@ -2458,13 +2575,13 @@
         <v>30</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E19" s="65">
         <f t="shared" si="0"/>
@@ -2477,13 +2594,13 @@
         <v>31</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E20" s="65">
         <f t="shared" si="0"/>
@@ -2496,13 +2613,13 @@
         <v>32</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D21" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E21" s="65">
         <f t="shared" si="0"/>
@@ -2515,13 +2632,13 @@
         <v>33</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E22" s="65">
         <f t="shared" si="0"/>
@@ -2545,10 +2662,10 @@
     </row>
     <row r="24" spans="1:6" ht="24">
       <c r="A24" s="42" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C24" s="54"/>
       <c r="D24" s="54"/>
@@ -2649,8 +2766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection sqref="A1:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2661,12 +2778,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" ht="16" thickBot="1">
@@ -2686,9 +2803,9 @@
       <c r="A3" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="88"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5">
@@ -2696,13 +2813,13 @@
         <v>218</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E4" s="7"/>
     </row>
@@ -2711,13 +2828,13 @@
         <v>219</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E5" s="8"/>
     </row>
@@ -2726,13 +2843,13 @@
         <v>220</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E6" s="8"/>
     </row>
@@ -2741,13 +2858,13 @@
         <v>221</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E7" s="8"/>
     </row>
@@ -2756,13 +2873,13 @@
         <v>223</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E8" s="8"/>
     </row>
@@ -2771,13 +2888,13 @@
         <v>222</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E9" s="8"/>
     </row>
@@ -2786,13 +2903,13 @@
         <v>224</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E10" s="8"/>
     </row>
@@ -2801,13 +2918,13 @@
         <v>225</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E11" s="8"/>
     </row>
@@ -2816,13 +2933,13 @@
         <v>226</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E12" s="8"/>
     </row>
@@ -2831,13 +2948,13 @@
         <v>227</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E13" s="8"/>
     </row>
@@ -2846,13 +2963,13 @@
         <v>228</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E14" s="8"/>
     </row>
@@ -2861,13 +2978,13 @@
         <v>229</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E15" s="8"/>
     </row>
@@ -2875,9 +2992,9 @@
       <c r="A16" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="B16" s="88"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="90"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="91"/>
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
@@ -2885,13 +3002,13 @@
         <v>231</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E17" s="8"/>
     </row>
@@ -2900,13 +3017,13 @@
         <v>232</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E18" s="8"/>
     </row>
@@ -2915,13 +3032,13 @@
         <v>233</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E19" s="8"/>
     </row>
@@ -2939,13 +3056,13 @@
         <v>235</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30">
@@ -2953,13 +3070,13 @@
         <v>236</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2967,13 +3084,13 @@
         <v>237</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2981,13 +3098,13 @@
         <v>238</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -3011,8 +3128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3023,12 +3140,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:6" ht="16" thickBot="1">
@@ -3048,9 +3165,9 @@
       <c r="A3" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="88"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:6">
@@ -3058,13 +3175,13 @@
         <v>241</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E4" s="7"/>
     </row>
@@ -3073,13 +3190,13 @@
         <v>242</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E5" s="8"/>
     </row>
@@ -3088,13 +3205,13 @@
         <v>243</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E6" s="8"/>
     </row>
@@ -3102,9 +3219,9 @@
       <c r="A7" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="90"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="91"/>
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:6">
@@ -3112,13 +3229,13 @@
         <v>245</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E8" s="8"/>
     </row>
@@ -3127,13 +3244,13 @@
         <v>246</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E9" s="8"/>
     </row>
@@ -3142,13 +3259,13 @@
         <v>247</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E10" s="8"/>
     </row>
@@ -3166,13 +3283,13 @@
         <v>249</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3180,13 +3297,13 @@
         <v>250</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3194,38 +3311,38 @@
         <v>251</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30">
       <c r="A15" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="90"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="91"/>
     </row>
     <row r="16" spans="1:6" ht="30">
       <c r="A16" s="4" t="s">
         <v>253</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F16" t="s">
         <v>287</v>
-      </c>
-      <c r="F16" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3233,13 +3350,13 @@
         <v>254</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30">
@@ -3247,13 +3364,13 @@
         <v>255</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3261,13 +3378,13 @@
         <v>256</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30">
@@ -3275,35 +3392,35 @@
         <v>257</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="90"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="91"/>
     </row>
     <row r="22" spans="1:4" ht="45">
       <c r="A22" s="4" t="s">
         <v>259</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30">
@@ -3311,49 +3428,47 @@
         <v>260</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30">
       <c r="A24" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="B24" s="88"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="90"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="91"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="4" t="s">
-        <v>262</v>
-      </c>
+      <c r="A25" s="4"/>
       <c r="B25" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -3381,8 +3496,8 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="A1:D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -3398,12 +3513,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="81"/>
       <c r="E1" s="45"/>
     </row>
     <row r="2" spans="1:9" ht="13" thickBot="1">
@@ -3423,9 +3538,9 @@
       <c r="A3" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="82"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="83"/>
       <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:9">
@@ -3433,13 +3548,13 @@
         <v>36</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E4" s="52"/>
       <c r="F4" s="58">
@@ -3452,10 +3567,10 @@
         <v>37</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D5" s="43" t="s">
         <v>18</v>
@@ -3471,7 +3586,7 @@
         <v>38</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C6" s="43" t="s">
         <v>145</v>
@@ -3490,13 +3605,13 @@
         <v>39</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E7" s="53"/>
       <c r="F7" s="58">
@@ -3509,13 +3624,13 @@
         <v>40</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E8" s="53"/>
       <c r="F8" s="58">
@@ -3535,10 +3650,10 @@
         <v>41</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D9" s="43" t="s">
         <v>145</v>
@@ -3557,10 +3672,10 @@
         <v>42</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D10" s="43" t="s">
         <v>145</v>
@@ -3582,10 +3697,10 @@
         <v>145</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E11" s="53"/>
       <c r="F11" s="58">
@@ -3598,13 +3713,13 @@
         <v>44</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C12" s="43" t="s">
         <v>145</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E12" s="53"/>
       <c r="F12" s="58">
@@ -3617,10 +3732,10 @@
         <v>45</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D13" s="43" t="s">
         <v>145</v>
@@ -3635,9 +3750,9 @@
       <c r="A14" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="75"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="77"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="78"/>
       <c r="E14" s="53"/>
     </row>
     <row r="15" spans="1:9">
@@ -3645,13 +3760,13 @@
         <v>47</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E15" s="53"/>
       <c r="F15" s="58">
@@ -3664,13 +3779,13 @@
         <v>48</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E16" s="53"/>
       <c r="F16" s="58">
@@ -3680,7 +3795,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="42" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B17" s="43" t="s">
         <v>145</v>
@@ -3724,10 +3839,10 @@
         <v>145</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E19" s="53"/>
       <c r="F19" s="58">
@@ -3740,13 +3855,13 @@
         <v>51</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E20" s="53"/>
       <c r="F20" s="58">
@@ -3768,13 +3883,13 @@
         <v>53</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F22" s="58">
         <f t="shared" si="1"/>
@@ -3786,13 +3901,13 @@
         <v>54</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F23" s="58">
         <f t="shared" si="1"/>
@@ -3804,13 +3919,13 @@
         <v>55</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F24" s="58">
         <f t="shared" si="1"/>
@@ -3822,13 +3937,13 @@
         <v>56</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F25" s="58">
         <f t="shared" si="1"/>
@@ -3840,13 +3955,13 @@
         <v>57</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D26" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F26" s="58">
         <f t="shared" si="1"/>
@@ -3857,22 +3972,22 @@
       <c r="A27" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="75"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="77"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="78"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="42" t="s">
         <v>59</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C28" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F28" s="58">
         <f t="shared" si="1"/>
@@ -3884,13 +3999,13 @@
         <v>61</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C29" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F29" s="58">
         <f t="shared" si="1"/>
@@ -3902,13 +4017,13 @@
         <v>60</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D30" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F30" s="58">
         <f t="shared" si="1"/>
@@ -3920,13 +4035,13 @@
         <v>62</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D31" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F31" s="58">
         <f t="shared" si="1"/>
@@ -3938,13 +4053,13 @@
         <v>63</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C32" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D32" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F32" s="58">
         <f t="shared" si="1"/>
@@ -3956,13 +4071,13 @@
         <v>64</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D33" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F33" s="58">
         <f t="shared" si="1"/>
@@ -3974,13 +4089,13 @@
         <v>65</v>
       </c>
       <c r="B34" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D34" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F34" s="58">
         <f t="shared" si="1"/>
@@ -3992,13 +4107,13 @@
         <v>66</v>
       </c>
       <c r="B35" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C35" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D35" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F35" s="58">
         <f t="shared" si="1"/>
@@ -4010,13 +4125,13 @@
         <v>67</v>
       </c>
       <c r="B36" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D36" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F36" s="58">
         <f t="shared" si="1"/>
@@ -4028,13 +4143,13 @@
         <v>68</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C37" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D37" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F37" s="58">
         <f t="shared" si="1"/>
@@ -4046,13 +4161,13 @@
         <v>69</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D38" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F38" s="58">
         <f t="shared" si="1"/>
@@ -4064,13 +4179,13 @@
         <v>70</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D39" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F39" s="58">
         <f t="shared" si="1"/>
@@ -4082,13 +4197,13 @@
         <v>71</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D40" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F40" s="58">
         <f t="shared" si="1"/>
@@ -4100,13 +4215,13 @@
         <v>72</v>
       </c>
       <c r="B41" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D41" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F41" s="58">
         <f t="shared" si="1"/>
@@ -4118,13 +4233,13 @@
         <v>73</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D42" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F42" s="58">
         <f t="shared" si="1"/>
@@ -4136,13 +4251,13 @@
         <v>74</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C43" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D43" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F43" s="58">
         <f t="shared" si="1"/>
@@ -4154,13 +4269,13 @@
         <v>75</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C44" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D44" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F44" s="58">
         <f t="shared" si="1"/>
@@ -4172,13 +4287,13 @@
         <v>76</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C45" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D45" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F45" s="58">
         <f t="shared" si="1"/>
@@ -4187,16 +4302,16 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="42" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B46" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D46" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F46" s="58">
         <f t="shared" si="1"/>
@@ -4208,13 +4323,13 @@
         <v>77</v>
       </c>
       <c r="B47" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C47" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D47" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F47" s="58">
         <f t="shared" si="1"/>
@@ -4223,16 +4338,16 @@
     </row>
     <row r="48" spans="1:6" ht="24">
       <c r="A48" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B48" s="62" t="s">
+        <v>288</v>
+      </c>
+      <c r="C48" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="C48" s="62" t="s">
+      <c r="D48" s="62" t="s">
         <v>290</v>
-      </c>
-      <c r="D48" s="62" t="s">
-        <v>291</v>
       </c>
       <c r="F48" s="58">
         <f t="shared" si="1"/>
@@ -4244,13 +4359,13 @@
         <v>78</v>
       </c>
       <c r="B49" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C49" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D49" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F49" s="58">
         <f t="shared" si="1"/>
@@ -4259,7 +4374,7 @@
     </row>
     <row r="50" spans="1:6" ht="24">
       <c r="B50" s="57" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -4286,7 +4401,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" sqref="A1:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -4300,12 +4415,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="81"/>
       <c r="E1" s="45"/>
     </row>
     <row r="2" spans="1:7" ht="13" thickBot="1">
@@ -4325,9 +4440,9 @@
       <c r="A3" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="82"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="83"/>
       <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:7">
@@ -4335,13 +4450,13 @@
         <v>81</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E4" s="52"/>
       <c r="F4" s="67">
@@ -4357,7 +4472,7 @@
         <v>145</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D5" s="43" t="s">
         <v>145</v>
@@ -4373,10 +4488,10 @@
         <v>83</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D6" s="43" t="s">
         <v>145</v>
@@ -4389,11 +4504,11 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="44" t="s">
-        <v>267</v>
-      </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="77"/>
+        <v>266</v>
+      </c>
+      <c r="B7" s="76"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="78"/>
       <c r="E7" s="53"/>
     </row>
     <row r="8" spans="1:7">
@@ -4430,7 +4545,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E9" s="53"/>
       <c r="F9" s="67">
@@ -4443,10 +4558,10 @@
         <v>86</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D10" s="43" t="s">
         <v>18</v>
@@ -4462,10 +4577,10 @@
         <v>87</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D11" s="43" t="s">
         <v>18</v>
@@ -4481,13 +4596,13 @@
         <v>89</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E12" s="53"/>
       <c r="F12" s="67">
@@ -4499,9 +4614,9 @@
       <c r="A13" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="77"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="78"/>
       <c r="E13" s="53"/>
     </row>
     <row r="14" spans="1:7">
@@ -4509,13 +4624,13 @@
         <v>90</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E14" s="53"/>
       <c r="F14" s="67">
@@ -4525,13 +4640,13 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B15" s="43" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D15" s="43" t="s">
         <v>18</v>
@@ -4556,13 +4671,13 @@
         <v>92</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F17" s="67">
         <f t="shared" si="1"/>
@@ -4577,10 +4692,10 @@
         <v>18</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D18" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F18" s="67">
         <f t="shared" si="1"/>
@@ -4611,7 +4726,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -4625,12 +4740,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="81"/>
       <c r="E1" s="63"/>
     </row>
     <row r="2" spans="1:6" ht="13" thickBot="1">
@@ -4650,9 +4765,9 @@
       <c r="A3" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="82"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="83"/>
       <c r="E3" s="64"/>
     </row>
     <row r="4" spans="1:6">
@@ -4663,10 +4778,10 @@
         <v>145</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E4" s="65">
         <f>SUM((IF(B4="Sí",3,IF(B4="Regular",2))),(IF(C4="Sí",3,IF(C4="Regular",2))),(IF(D4="Sí",3,IF(D4="Regular",2))))/9</f>
@@ -4678,10 +4793,10 @@
         <v>97</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D5" s="43" t="s">
         <v>145</v>
@@ -4696,10 +4811,10 @@
         <v>98</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D6" s="43" t="s">
         <v>145</v>
@@ -4714,13 +4829,13 @@
         <v>99</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E7" s="65">
         <f t="shared" si="0"/>
@@ -4731,9 +4846,9 @@
       <c r="A8" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="77"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="78"/>
       <c r="E8" s="65"/>
     </row>
     <row r="9" spans="1:6">
@@ -4741,13 +4856,13 @@
         <v>101</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E9" s="65">
         <f t="shared" si="0"/>
@@ -4759,13 +4874,13 @@
         <v>102</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E10" s="65">
         <f t="shared" si="0"/>
@@ -4777,17 +4892,17 @@
         <v>103</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E11" s="65"/>
       <c r="F11" s="68" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4795,13 +4910,13 @@
         <v>104</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E12" s="65">
         <f t="shared" si="0"/>
@@ -4822,13 +4937,13 @@
         <v>106</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E14" s="65">
         <f t="shared" si="0"/>
@@ -4837,7 +4952,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="D15" s="57" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -4863,7 +4978,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" sqref="A1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -4877,12 +4992,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="81"/>
       <c r="E1" s="45"/>
     </row>
     <row r="2" spans="1:6" ht="13" thickBot="1">
@@ -4902,9 +5017,9 @@
       <c r="A3" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="82"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="83"/>
       <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:6">
@@ -4912,10 +5027,10 @@
         <v>109</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D4" s="43" t="s">
         <v>145</v>
@@ -4931,13 +5046,13 @@
         <v>110</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E5" s="53"/>
       <c r="F5" s="67">
@@ -4966,16 +5081,16 @@
     </row>
     <row r="7" spans="1:6" ht="24">
       <c r="A7" s="42" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E7" s="53"/>
       <c r="F7" s="67">
@@ -4985,16 +5100,16 @@
     </row>
     <row r="8" spans="1:6" ht="24">
       <c r="A8" s="42" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E8" s="53"/>
       <c r="F8" s="67">
@@ -5004,16 +5119,16 @@
     </row>
     <row r="9" spans="1:6" ht="24">
       <c r="A9" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E9" s="53"/>
       <c r="F9" s="67">
@@ -5023,7 +5138,7 @@
     </row>
     <row r="10" spans="1:6" ht="24">
       <c r="A10" s="55" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B10" s="43" t="s">
         <v>18</v>
@@ -5042,7 +5157,7 @@
     </row>
     <row r="11" spans="1:6" ht="24" hidden="1">
       <c r="A11" s="55" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B11" s="43"/>
       <c r="C11" s="43"/>
@@ -5055,7 +5170,7 @@
     </row>
     <row r="12" spans="1:6" ht="24" hidden="1">
       <c r="A12" s="55" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B12" s="43"/>
       <c r="C12" s="43"/>
@@ -5068,16 +5183,16 @@
     </row>
     <row r="13" spans="1:6" ht="24">
       <c r="A13" s="55" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="67">
@@ -5090,10 +5205,10 @@
         <v>112</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D14" s="43" t="s">
         <v>18</v>
@@ -5128,13 +5243,13 @@
         <v>114</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E16" s="53"/>
       <c r="F16" s="67">
@@ -5163,7 +5278,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection sqref="A1:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5174,12 +5289,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="16" thickBot="1">
@@ -5199,9 +5314,9 @@
       <c r="A3" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="88"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:8">
@@ -5209,13 +5324,13 @@
         <v>117</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E4" s="7"/>
     </row>
@@ -5224,13 +5339,13 @@
         <v>118</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E5" s="8"/>
     </row>
@@ -5239,23 +5354,23 @@
         <v>119</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="G6" s="37" t="s">
         <v>276</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="H6" s="35" t="s">
         <v>277</v>
-      </c>
-      <c r="H6" s="35" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5263,13 +5378,13 @@
         <v>120</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="36">
@@ -5287,13 +5402,13 @@
         <v>121</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E8" s="8"/>
     </row>
@@ -5301,9 +5416,9 @@
       <c r="A9" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="88"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="90"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="91"/>
       <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:8" ht="45">
@@ -5311,13 +5426,13 @@
         <v>123</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E10" s="8"/>
     </row>
@@ -5326,13 +5441,13 @@
         <v>124</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="E11" s="8"/>
     </row>
@@ -5341,13 +5456,13 @@
         <v>125</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E12" s="8"/>
     </row>
@@ -5356,13 +5471,13 @@
         <v>126</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E13" s="8"/>
     </row>
@@ -5371,13 +5486,13 @@
         <v>127</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E14" s="8"/>
     </row>
@@ -5386,13 +5501,13 @@
         <v>127</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="E15" s="8"/>
     </row>
@@ -5401,13 +5516,13 @@
         <v>127</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E16" s="8"/>
     </row>
@@ -5416,13 +5531,13 @@
         <v>127</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E17" s="8"/>
     </row>
@@ -5431,13 +5546,13 @@
         <v>127</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E18" s="8"/>
     </row>
@@ -5446,13 +5561,13 @@
         <v>128</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="E19" s="8"/>
     </row>
@@ -5461,13 +5576,13 @@
         <v>128</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>280</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E20" s="8"/>
     </row>
@@ -5476,13 +5591,13 @@
         <v>128</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>280</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E21" s="8"/>
     </row>
@@ -5491,13 +5606,13 @@
         <v>128</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E22" s="8"/>
     </row>
@@ -5506,13 +5621,13 @@
         <v>128</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E23" s="8"/>
     </row>
@@ -5521,13 +5636,13 @@
         <v>129</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -5551,8 +5666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection sqref="A1:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5565,12 +5680,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="16" thickBot="1">
@@ -5590,9 +5705,9 @@
       <c r="A3" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="88"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="30">
@@ -5600,13 +5715,13 @@
         <v>132</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E4" s="7"/>
     </row>
@@ -5614,9 +5729,9 @@
       <c r="A5" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="90"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="91"/>
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:8">
@@ -5624,26 +5739,26 @@
         <v>134</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="35" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30">
       <c r="A7" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="90"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="91"/>
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:8">
@@ -5651,13 +5766,13 @@
         <v>136</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E8" s="8"/>
     </row>
@@ -5666,13 +5781,13 @@
         <v>139</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="26" t="s">
@@ -5689,9 +5804,9 @@
       <c r="A10" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="93"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="94"/>
       <c r="E10" s="8"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
@@ -5702,13 +5817,13 @@
         <v>149</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="26" t="s">
@@ -5726,13 +5841,13 @@
         <v>147</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="26"/>
@@ -5743,9 +5858,9 @@
       <c r="A13" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="B13" s="91"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="93"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="94"/>
       <c r="E13" s="8"/>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
@@ -5756,13 +5871,13 @@
         <v>150</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="26" t="s">
@@ -5779,9 +5894,9 @@
       <c r="A15" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="90"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="91"/>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:8">
@@ -5789,13 +5904,13 @@
         <v>138</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E16" s="8"/>
     </row>
@@ -5804,13 +5919,13 @@
         <v>136</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E17" s="8"/>
     </row>
@@ -5828,13 +5943,13 @@
         <v>152</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>284</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F19" s="25" t="s">
         <v>140</v>
@@ -5854,13 +5969,13 @@
         <v>156</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F20" s="25" t="s">
         <v>140</v>
@@ -5880,13 +5995,13 @@
         <v>157</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F21" s="25" t="s">
         <v>140</v>
@@ -5906,13 +6021,13 @@
         <v>158</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F22" s="25" t="s">
         <v>140</v>
@@ -5932,13 +6047,13 @@
         <v>159</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F23" s="25" t="s">
         <v>140</v>
@@ -5957,22 +6072,22 @@
       <c r="A24" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="B24" s="88"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="90"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="91"/>
     </row>
     <row r="25" spans="1:9" ht="45">
       <c r="A25" s="4" t="s">
         <v>161</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F25" s="25" t="s">
         <v>140</v>
@@ -6013,8 +6128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6026,12 +6141,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:7" ht="16" thickBot="1">
@@ -6051,9 +6166,9 @@
       <c r="A3" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="88"/>
       <c r="E3" s="6"/>
       <c r="F3" s="27" t="s">
         <v>173</v>
@@ -6067,13 +6182,13 @@
         <v>163</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="3" t="s">
@@ -6088,13 +6203,13 @@
         <v>164</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="3" t="s">
@@ -6109,13 +6224,13 @@
         <v>165</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="3" t="s">
@@ -6130,13 +6245,13 @@
         <v>166</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="3" t="s">
@@ -6151,13 +6266,13 @@
         <v>167</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="3" t="s">
@@ -6172,13 +6287,13 @@
         <v>168</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="3" t="s">
@@ -6193,13 +6308,13 @@
         <v>169</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="3" t="s">
@@ -6214,13 +6329,13 @@
         <v>170</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="3" t="s">
@@ -6235,13 +6350,13 @@
         <v>171</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="3" t="s">
@@ -6256,13 +6371,13 @@
         <v>172</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="3" t="s">
@@ -6277,13 +6392,13 @@
         <v>184</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="3" t="s">
@@ -6298,13 +6413,13 @@
         <v>185</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="3" t="s">
@@ -6319,13 +6434,13 @@
         <v>186</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="3" t="s">
@@ -6340,13 +6455,13 @@
         <v>187</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="3" t="s">
@@ -6361,13 +6476,13 @@
         <v>188</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="3" t="s">
@@ -6398,9 +6513,9 @@
       <c r="A20" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="90"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="91"/>
       <c r="E20" s="8"/>
       <c r="F20" s="27" t="s">
         <v>175</v>
@@ -6414,13 +6529,13 @@
         <v>177</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="3" t="s">
@@ -6435,13 +6550,13 @@
         <v>178</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="3" t="s">
@@ -6456,13 +6571,13 @@
         <v>179</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="3" t="s">
@@ -6477,13 +6592,13 @@
         <v>180</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="3" t="s">
@@ -6498,13 +6613,13 @@
         <v>181</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="3" t="s">
@@ -6519,13 +6634,13 @@
         <v>182</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>182</v>
@@ -6554,9 +6669,9 @@
       <c r="A28" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="B28" s="88"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="90"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="91"/>
       <c r="E28" s="8"/>
       <c r="F28" s="31"/>
       <c r="G28" s="31"/>
@@ -6566,13 +6681,13 @@
         <v>192</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>193</v>
@@ -6602,13 +6717,13 @@
         <v>197</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -6633,8 +6748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:D19"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection sqref="A1:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6645,12 +6760,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" ht="16" thickBot="1">
@@ -6670,9 +6785,9 @@
       <c r="A3" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="88"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5">
@@ -6680,13 +6795,13 @@
         <v>200</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E4" s="7"/>
     </row>
@@ -6695,13 +6810,13 @@
         <v>201</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E5" s="8"/>
     </row>
@@ -6710,13 +6825,13 @@
         <v>202</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E6" s="8"/>
     </row>
@@ -6724,9 +6839,9 @@
       <c r="A7" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="90"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="91"/>
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5">
@@ -6734,13 +6849,13 @@
         <v>204</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E8" s="8"/>
     </row>
@@ -6749,13 +6864,13 @@
         <v>205</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E9" s="8"/>
     </row>
@@ -6764,13 +6879,13 @@
         <v>206</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E10" s="8"/>
     </row>
@@ -6779,13 +6894,13 @@
         <v>207</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E11" s="8"/>
     </row>
@@ -6794,13 +6909,13 @@
         <v>208</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E12" s="8"/>
     </row>
@@ -6808,9 +6923,9 @@
       <c r="A13" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="B13" s="88"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="90"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="91"/>
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
@@ -6818,13 +6933,13 @@
         <v>210</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E14" s="8"/>
     </row>
@@ -6832,9 +6947,9 @@
       <c r="A15" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="90"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="91"/>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" ht="30">
@@ -6842,13 +6957,13 @@
         <v>212</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E16" s="8"/>
     </row>
@@ -6856,9 +6971,9 @@
       <c r="A17" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="B17" s="88"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="90"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="91"/>
       <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" ht="30">
@@ -6866,13 +6981,13 @@
         <v>214</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E18" s="8"/>
     </row>
@@ -6881,13 +6996,13 @@
         <v>215</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E19" s="8"/>
     </row>
